--- a/biology/Botanique/Vallée_d'Aoste_Petite_Arvine/Vallée_d'Aoste_Petite_Arvine.xlsx
+++ b/biology/Botanique/Vallée_d'Aoste_Petite_Arvine/Vallée_d'Aoste_Petite_Arvine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Petite_Arvine</t>
+          <t>Vallée_d'Aoste_Petite_Arvine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Vallée d'Aoste est un vin blanc italien de la région autonome Vallée d'Aoste doté d'une appellation DOC depuis le 30 juillet 1985. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en Vallée d'Aoste dans les communes de Aoste, Arnad, Arvier, Avise, Aymavilles, Bard, Brissogne, Challand-Saint-Victor, Chambave, Champdepraz, Charvensod, Châtillon, Donnas, Fénis, Gressan, Hône, Introd, Issogne, Jovençan, La Salle, Montjovet, Morgex, Nus, Perloz, Pollein, Pontey,  Pont-Saint-Martin, Quart,  Saint-Christophe,  Saint-Denis, Saint-Nicolas,  Saint-Vincent, Sarre, Verrayes, Verrès, Villeneuve.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Petite_Arvine</t>
+          <t>Vallée_d'Aoste_Petite_Arvine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille avec des reflets verdâtre.
 odeur : subtil, aromatique avec des arômes de pamplemousse
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Petite_Arvine</t>
+          <t>Vallée_d'Aoste_Petite_Arvine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Petite_Arvine</t>
+          <t>Vallée_d'Aoste_Petite_Arvine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Petite_Arvine</t>
+          <t>Vallée_d'Aoste_Petite_Arvine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,7 +616,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
